--- a/biology/Botanique/All-America_Rose_Selections/All-America_Rose_Selections.xlsx
+++ b/biology/Botanique/All-America_Rose_Selections/All-America_Rose_Selections.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le prix All-America Rose Selections (AARS) est un prix annuel qui a été décerné de 1940 à 2013 aux États-Unis dans le domaine de la culture de la rose pour la variété la plus exceptionnelle. Ce prix était considéré dans ce domaine comme le plus prestigieux des États-Unis. Il a cessé en 2013 pour être remplacé par les American Garden Rose Selections.
 </t>
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est en 1938, que W. Ray Hastings, à l'origine des All-America Rose Selections, se met en rapport avec Charles Perkins, président des pépinières Jackson &amp; Perkins pour lancer ce prix. Une réunion a lieu ensuite à Chicago le 8 janvier 1939 avec des représentants des dix-sept pépinières de roses les plus importantes. Cela donne naissance à la fondation de l'organisation à but non lucratif, All-America Rose Selections, Inc. (AARS), dans le but de distinguer et de promouvoir les roses les plus exceptionnelles. Le premier concours se tient en 1939 dans les jardins que l'AARS a sélectionnés dans le pays. les premiers gagnants sont annoncés en 1940[1]. 
-Le prix All-America Rose Selections est décerné tous les ans jusqu'en 2013[1]. L'hybride de thé, 'Francis Meilland' (connu en France sous le nom de 'Prince Jardinier') est la dernière rose à avoir été distinguée[2]. Ensuite le prix American Garden Rose Selections lui succède[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1938, que W. Ray Hastings, à l'origine des All-America Rose Selections, se met en rapport avec Charles Perkins, président des pépinières Jackson &amp; Perkins pour lancer ce prix. Une réunion a lieu ensuite à Chicago le 8 janvier 1939 avec des représentants des dix-sept pépinières de roses les plus importantes. Cela donne naissance à la fondation de l'organisation à but non lucratif, All-America Rose Selections, Inc. (AARS), dans le but de distinguer et de promouvoir les roses les plus exceptionnelles. Le premier concours se tient en 1939 dans les jardins que l'AARS a sélectionnés dans le pays. les premiers gagnants sont annoncés en 1940. 
+Le prix All-America Rose Selections est décerné tous les ans jusqu'en 2013. L'hybride de thé, 'Francis Meilland' (connu en France sous le nom de 'Prince Jardinier') est la dernière rose à avoir été distinguée. Ensuite le prix American Garden Rose Selections lui succède.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Sélections des roses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le processus de sélection commence par l'horticulteur (ou le rosiériste) qui soumet une ou plusieurs roses au comité de sélection de l'AARS ; puis celles-ci sont installées dans les jardins de l'AARS afin d'évaluer sa culture, le plus souvent dans des jardins universitaires ou des pépinières choisies par le comité dans tous les États-Unis. L'évaluation a lieu au cours de ces deux années, il s'agit d'examiner la résistance aux maladies, le floraison, le forme et les qualités des fleurs et du feuillage, l'adaptation à différents climats, etc. Les roses sélectionnées à la fin de cette période représentent environ 4% de celles présentrées au début. Les roses gagnantes peuvent ajouter la marque AARS sur les étiquettes de vente et les catalogues[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le processus de sélection commence par l'horticulteur (ou le rosiériste) qui soumet une ou plusieurs roses au comité de sélection de l'AARS ; puis celles-ci sont installées dans les jardins de l'AARS afin d'évaluer sa culture, le plus souvent dans des jardins universitaires ou des pépinières choisies par le comité dans tous les États-Unis. L'évaluation a lieu au cours de ces deux années, il s'agit d'examiner la résistance aux maladies, le floraison, le forme et les qualités des fleurs et du feuillage, l'adaptation à différents climats, etc. Les roses sélectionnées à la fin de cette période représentent environ 4% de celles présentrées au début. Les roses gagnantes peuvent ajouter la marque AARS sur les étiquettes de vente et les catalogues.
 </t>
         </is>
       </c>
@@ -574,7 +590,9 @@
           <t>Gagnants AARS</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste partielle.
 </t>
